--- a/medicine/Mort/Cimetière_de_Dannemois/Cimetière_de_Dannemois.xlsx
+++ b/medicine/Mort/Cimetière_de_Dannemois/Cimetière_de_Dannemois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Dannemois</t>
+          <t>Cimetière_de_Dannemois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Dannemois est un cimetière situé à Dannemois en Essonne. On y trouve notamment la tombe du chanteur Claude François.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Dannemois</t>
+          <t>Cimetière_de_Dannemois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est situé au no 1, rue de la Messe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est situé au no 1, rue de la Messe.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Dannemois</t>
+          <t>Cimetière_de_Dannemois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 15 mars 1978 les obsèques de Claude François attirèrent au cimetière de Dannemois environ 1 500 personnes. Depuis cette date, les admirateurs se rendent toujours aussi nombreux pour lui rendre hommage[2].
-En 2013, sa tombe est vandalisée[3].
-En décembre 2018, la statue de Claude François et le buste de sa mère Chouffa sont provisoirement retirés pour être nettoyés et restaurés, et sont remis le 9 mars 2019[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 15 mars 1978 les obsèques de Claude François attirèrent au cimetière de Dannemois environ 1 500 personnes. Depuis cette date, les admirateurs se rendent toujours aussi nombreux pour lui rendre hommage.
+En 2013, sa tombe est vandalisée.
+En décembre 2018, la statue de Claude François et le buste de sa mère Chouffa sont provisoirement retirés pour être nettoyés et restaurés, et sont remis le 9 mars 2019.
 </t>
         </is>
       </c>
